--- a/CODA_INOUT定義.xlsx
+++ b/CODA_INOUT定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C43B2-670A-934F-9681-0C6559A83B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333F595-9607-AA4F-993C-81B36773E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36020" yWindow="7580" windowWidth="27020" windowHeight="12240" activeTab="5" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-37340" yWindow="980" windowWidth="27020" windowHeight="12240" activeTab="5" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="C001.ユーザーアカウント新規登録" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/user_accounts/delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーアカウント情報を削除する</t>
     <rPh sb="0" eb="4">
       <t>ユーザーアカウントヲ</t>
@@ -300,6 +296,108 @@
     <rPh sb="5" eb="7">
       <t>サクゼィオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアカウントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名（物理）</t>
+  </si>
+  <si>
+    <t>項目名（論理）</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
+    <t>繰り返し</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>user_account_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user_accounts/delete/{user_account_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{user_account_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜面ID</t>
+    <rPh sb="0" eb="2">
+      <t>フメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜面名</t>
+    <rPh sb="0" eb="1">
+      <t>フメn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譜面名</t>
+    <rPh sb="0" eb="3">
+      <t>フメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{score_id}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -307,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,8 +437,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +467,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333F4F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -402,9 +522,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -420,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,11 +564,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -445,26 +579,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,11 +917,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C833ADDD-B464-9A45-B332-8B5525D5400A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -801,68 +936,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -880,95 +1014,83 @@
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -982,11 +1104,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC08D87-797A-DE4F-9F57-701A2FDC2220}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920D4EF-69B1-D942-A7A0-5B7035B83452}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0020ADB7-AD77-7944-8FDC-8D2440E43DEE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1003,68 +1471,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1082,113 +1549,92 @@
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920D4EF-69B1-D942-A7A0-5B7035B83452}">
-  <dimension ref="A1:J17"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C93B3F1-EAC1-FA49-AAD8-A8104ED3CBFA}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1205,68 +1651,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1284,113 +1729,97 @@
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0020ADB7-AD77-7944-8FDC-8D2440E43DEE}">
-  <dimension ref="A1:J17"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26808245-359A-7D47-8A73-FC2CD23547DC}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1407,68 +1836,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1486,504 +1914,65 @@
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C93B3F1-EAC1-FA49-AAD8-A8104ED3CBFA}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26808245-359A-7D47-8A73-FC2CD23547DC}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODA_INOUT定義.xlsx
+++ b/CODA_INOUT定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333F595-9607-AA4F-993C-81B36773E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D94BA2-0662-8648-BD89-D31B514EC459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37340" yWindow="980" windowWidth="27020" windowHeight="12240" activeTab="5" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-34020" yWindow="4040" windowWidth="27020" windowHeight="12240" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="C001.ユーザーアカウント新規登録" sheetId="2" r:id="rId1"/>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C833ADDD-B464-9A45-B332-8B5525D5400A}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1819,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26808245-359A-7D47-8A73-FC2CD23547DC}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
